--- a/biology/Médecine/Artère_tympanique_inférieure/Artère_tympanique_inférieure.xlsx
+++ b/biology/Médecine/Artère_tympanique_inférieure/Artère_tympanique_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tympanique_inf%C3%A9rieure</t>
+          <t>Artère_tympanique_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère tympanique inférieure est une petite branche de l'artère pharyngienne ascendante.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tympanique_inf%C3%A9rieure</t>
+          <t>Artère_tympanique_inférieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère tympanique inférieure est une petite branche de l'artère pharyngienne ascendante qui traverse le canalicule tympanique avec le nerf tympanique pour vasculariser la paroi médiale de la cavité tympanique et s'anastomose avec les autres artères tympaniques.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_tympanique_inf%C3%A9rieure</t>
+          <t>Artère_tympanique_inférieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cas d'une artère carotide interne cervicale manquante ou sous-développée, l'artère tympanique inférieure peut fournir une circulation collatérale en inversant le flux de l'artère carotico-tympanique (artère hyoïde embryologique). Cela peut entraîner des acouphènes pulsatiles. L'artère carotide aberrante qui en résulte peut imiter un néoplasme par tomodensitométrie.
 </t>
